--- a/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_115_150G_CAT_I_SACHET.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_115_150G_CAT_I_SACHET.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,339 +467,229 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>45656</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9599999785423279</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.049999952316284</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>45600</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.019999980926514</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.029999971389771</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>45607</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.019999980926514</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.029999971389771</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.009999990463257</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>45614</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.029999971389771</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.009999990463257</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9700000286102295</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>45621</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.009999990463257</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9800000190734863</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+        <v>45628</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.009999990463257</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9800000190734863</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9599999785423279</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+        <v>45635</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9800000190734863</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9599999785423279</v>
+      </c>
       <c r="E8" t="n">
-        <v>1.100000023841858</v>
+        <v>0.9700000286102295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+        <v>45642</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9800000190734863</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9599999785423279</v>
+      </c>
       <c r="D9" t="n">
-        <v>1.100000023841858</v>
+        <v>0.9700000286102295</v>
       </c>
       <c r="E9" t="n">
-        <v>1.090000033378601</v>
+        <v>0.949999988079071</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
+        <v>45649</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9599999785423279</v>
+      </c>
       <c r="C10" t="n">
-        <v>1.100000023841858</v>
+        <v>0.9700000286102295</v>
       </c>
       <c r="D10" t="n">
-        <v>1.090000033378601</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="E10" t="n">
-        <v>1.090000033378601</v>
+        <v>0.9599999785423279</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45663</v>
       </c>
       <c r="B11" t="n">
-        <v>1.100000023841858</v>
+        <v>0.9700000286102295</v>
       </c>
       <c r="C11" t="n">
-        <v>1.090000033378601</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="D11" t="n">
-        <v>1.090000033378601</v>
+        <v>0.9599999785423279</v>
       </c>
       <c r="E11" t="n">
-        <v>1.059999942779541</v>
+        <v>0.9300000071525574</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45670</v>
       </c>
       <c r="B12" t="n">
-        <v>1.090000033378601</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="C12" t="n">
-        <v>1.090000033378601</v>
+        <v>0.9599999785423279</v>
       </c>
       <c r="D12" t="n">
-        <v>1.059999942779541</v>
+        <v>0.9300000071525574</v>
       </c>
       <c r="E12" t="n">
-        <v>1.049999952316284</v>
+        <v>0.9100000262260437</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45677</v>
       </c>
       <c r="B13" t="n">
-        <v>1.090000033378601</v>
+        <v>0.9599999785423279</v>
       </c>
       <c r="C13" t="n">
-        <v>1.059999942779541</v>
+        <v>0.9300000071525574</v>
       </c>
       <c r="D13" t="n">
-        <v>1.049999952316284</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.019999980926514</v>
-      </c>
+        <v>0.9100000262260437</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45684</v>
       </c>
       <c r="B14" t="n">
-        <v>1.059999942779541</v>
+        <v>0.9300000071525574</v>
       </c>
       <c r="C14" t="n">
-        <v>1.049999952316284</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.019999980926514</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.029999971389771</v>
-      </c>
+        <v>0.9100000262260437</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45691</v>
       </c>
       <c r="B15" t="n">
-        <v>1.049999952316284</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.019999980926514</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.029999971389771</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.019999980926514</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.029999971389771</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.009999990463257</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.029999971389771</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.009999990463257</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9700000286102295</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.009999990463257</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.9700000286102295</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.009999990463257</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9700000286102295</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.9599999785423279</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9700000286102295</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.9599999785423279</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9700000286102295</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9599999785423279</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.9700000286102295</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.949999988079071</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9599999785423279</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9700000286102295</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9599999785423279</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.9700000286102295</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.9599999785423279</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.9599999785423279</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9599999785423279</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>0.9100000262260437</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -812,7 +702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,338 +734,198 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.034022688865662</v>
+        <v>1.000666737556458</v>
       </c>
       <c r="C2" t="n">
-        <v>1.069374442100525</v>
+        <v>0.9621188640594482</v>
       </c>
       <c r="D2" t="n">
-        <v>1.045193433761597</v>
+        <v>1.019213795661926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45600</v>
       </c>
       <c r="B3" t="n">
-        <v>1.034022688865662</v>
+        <v>1.040082812309265</v>
       </c>
       <c r="C3" t="n">
-        <v>1.069374442100525</v>
+        <v>1.026564240455627</v>
       </c>
       <c r="D3" t="n">
-        <v>1.045193433761597</v>
+        <v>1.032077193260193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45607</v>
       </c>
       <c r="B4" t="n">
-        <v>1.039116382598877</v>
+        <v>1.032805562019348</v>
       </c>
       <c r="C4" t="n">
-        <v>1.069374442100525</v>
+        <v>0.9972455501556396</v>
       </c>
       <c r="D4" t="n">
-        <v>1.045193433761597</v>
+        <v>1.010000348091125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45614</v>
       </c>
       <c r="B5" t="n">
-        <v>1.037058234214783</v>
+        <v>1.046955347061157</v>
       </c>
       <c r="C5" t="n">
-        <v>1.069395065307617</v>
+        <v>1.013784527778625</v>
       </c>
       <c r="D5" t="n">
-        <v>1.05603551864624</v>
+        <v>1.026216268539429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45621</v>
       </c>
       <c r="B6" t="n">
-        <v>1.068811774253845</v>
+        <v>0.998407244682312</v>
       </c>
       <c r="C6" t="n">
-        <v>1.07928478717804</v>
+        <v>1.00897228717804</v>
       </c>
       <c r="D6" t="n">
-        <v>1.085378408432007</v>
+        <v>1.023198127746582</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45628</v>
       </c>
       <c r="B7" t="n">
-        <v>1.068724393844604</v>
+        <v>1.027346014976501</v>
       </c>
       <c r="C7" t="n">
-        <v>1.078502058982849</v>
+        <v>1.002842545509338</v>
       </c>
       <c r="D7" t="n">
-        <v>1.085378408432007</v>
+        <v>1.002473831176758</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45635</v>
       </c>
       <c r="B8" t="n">
-        <v>1.067657947540283</v>
+        <v>1.001655459403992</v>
       </c>
       <c r="C8" t="n">
-        <v>1.078670263290405</v>
+        <v>0.995857298374176</v>
       </c>
       <c r="D8" t="n">
-        <v>1.073941230773926</v>
+        <v>0.9868268966674805</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45642</v>
       </c>
       <c r="B9" t="n">
-        <v>1.082134366035461</v>
+        <v>0.992656409740448</v>
       </c>
       <c r="C9" t="n">
-        <v>1.079877257347107</v>
+        <v>0.9721570611000061</v>
       </c>
       <c r="D9" t="n">
-        <v>1.075354814529419</v>
+        <v>0.9861927032470703</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45649</v>
       </c>
       <c r="B10" t="n">
-        <v>1.093918204307556</v>
+        <v>1.003284454345703</v>
       </c>
       <c r="C10" t="n">
-        <v>1.083016037940979</v>
+        <v>0.9686437845230103</v>
       </c>
       <c r="D10" t="n">
-        <v>1.069631814956665</v>
+        <v>1.000754356384277</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45663</v>
       </c>
       <c r="B11" t="n">
-        <v>1.099695444107056</v>
+        <v>1.005599975585938</v>
       </c>
       <c r="C11" t="n">
-        <v>1.092044711112976</v>
+        <v>0.9983696937561035</v>
       </c>
       <c r="D11" t="n">
-        <v>1.089284420013428</v>
+        <v>1.013811349868774</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45670</v>
       </c>
       <c r="B12" t="n">
-        <v>1.089006781578064</v>
+        <v>0.9929331541061401</v>
       </c>
       <c r="C12" t="n">
-        <v>1.093315482139587</v>
+        <v>0.9697510600090027</v>
       </c>
       <c r="D12" t="n">
-        <v>1.077462434768677</v>
+        <v>0.9973499774932861</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45677</v>
       </c>
       <c r="B13" t="n">
-        <v>1.090182185173035</v>
+        <v>0.9992318749427795</v>
       </c>
       <c r="C13" t="n">
-        <v>1.120695948600769</v>
+        <v>0.9734795689582825</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0702223777771</v>
+        <v>1.008678078651428</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45684</v>
       </c>
       <c r="B14" t="n">
-        <v>1.092543125152588</v>
+        <v>0.9971379637718201</v>
       </c>
       <c r="C14" t="n">
-        <v>1.115762829780579</v>
+        <v>0.9731122851371765</v>
       </c>
       <c r="D14" t="n">
-        <v>1.062518358230591</v>
+        <v>1.00661826133728</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45691</v>
       </c>
       <c r="B15" t="n">
-        <v>1.082298755645752</v>
+        <v>0.9972754716873169</v>
       </c>
       <c r="C15" t="n">
-        <v>1.112531900405884</v>
+        <v>0.9634070992469788</v>
       </c>
       <c r="D15" t="n">
-        <v>1.063863515853882</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.07322633266449</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.103337168693542</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.054609775543213</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.072996258735657</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.103051781654358</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.067175626754761</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.073285937309265</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.089380264282227</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.058212995529175</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.089354753494263</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.106457352638245</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.044496774673462</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.073039174079895</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.082239627838135</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.044490337371826</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.066280245780945</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.085295677185059</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.02715277671814</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.07262921333313</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.013602733612061</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.042390108108521</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.045225143432617</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.030187964439392</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.042535305023193</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.04679262638092</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.02759575843811</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.027497291564941</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.040746569633484</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.034810543060303</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.029029607772827</v>
+        <v>0.9861847162246704</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_115_150G_CAT_I_SACHET.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_115_150G_CAT_I_SACHET.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,212 +484,373 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.049999952316284</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.019999980926514</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.029999971389771</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
+        <v>45509</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.019999980926514</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.029999971389771</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.009999990463257</v>
-      </c>
+        <v>45516</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.029999971389771</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.009999990463257</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9700000286102295</v>
-      </c>
+        <v>45523</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.009999990463257</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9700000286102295</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9800000190734863</v>
-      </c>
+        <v>45530</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.009999990463257</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9700000286102295</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9599999785423279</v>
-      </c>
+        <v>45537</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9700000286102295</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9599999785423279</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9700000286102295</v>
-      </c>
+        <v>45544</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9599999785423279</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.9700000286102295</v>
-      </c>
+        <v>45551</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.949999988079071</v>
+        <v>1.100000023841858</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9599999785423279</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9700000286102295</v>
-      </c>
+        <v>45558</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>0.949999988079071</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9599999785423279</v>
+        <v>1.090000033378601</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9700000286102295</v>
-      </c>
+        <v>45565</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>0.949999988079071</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9599999785423279</v>
+        <v>1.090000033378601</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9300000071525574</v>
+        <v>1.090000033378601</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45670</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>0.949999988079071</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9599999785423279</v>
+        <v>1.090000033378601</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9300000071525574</v>
+        <v>1.090000033378601</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9100000262260437</v>
+        <v>1.059999942779541</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45677</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9599999785423279</v>
+        <v>1.090000033378601</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9300000071525574</v>
+        <v>1.090000033378601</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9100000262260437</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>1.059999942779541</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.049999952316284</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45684</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9300000071525574</v>
+        <v>1.090000033378601</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9100000262260437</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+        <v>1.059999942779541</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.019999980926514</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.059999942779541</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.019999980926514</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.029999971389771</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.019999980926514</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.029999971389771</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.019999980926514</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.029999971389771</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.009999990463257</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.029999971389771</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.009999990463257</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.009999990463257</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9800000190734863</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.009999990463257</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9800000190734863</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9599999785423279</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9800000190734863</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9599999785423279</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9800000190734863</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9599999785423279</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.949999988079071</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9599999785423279</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9599999785423279</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9599999785423279</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9599999785423279</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9100000262260437</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9599999785423279</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9100000262260437</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9100000262260437</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45691</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B28" t="n">
         <v>0.9100000262260437</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -702,7 +863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,195 +898,377 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.000666737556458</v>
+        <v>1.012561678886414</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9621188640594482</v>
+        <v>0.9402960538864136</v>
       </c>
       <c r="D2" t="n">
-        <v>1.019213795661926</v>
+        <v>0.9866102337837219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45600</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.040082812309265</v>
+        <v>1.050508737564087</v>
       </c>
       <c r="C3" t="n">
-        <v>1.026564240455627</v>
+        <v>1.087898254394531</v>
       </c>
       <c r="D3" t="n">
-        <v>1.032077193260193</v>
+        <v>1.068228960037231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45607</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.032805562019348</v>
+        <v>1.053743362426758</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9972455501556396</v>
+        <v>1.088605880737305</v>
       </c>
       <c r="D4" t="n">
-        <v>1.010000348091125</v>
+        <v>1.055316567420959</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45614</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.046955347061157</v>
+        <v>1.053256034851074</v>
       </c>
       <c r="C5" t="n">
-        <v>1.013784527778625</v>
+        <v>1.088605880737305</v>
       </c>
       <c r="D5" t="n">
-        <v>1.026216268539429</v>
+        <v>1.051173686981201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45621</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.998407244682312</v>
+        <v>1.054326057434082</v>
       </c>
       <c r="C6" t="n">
-        <v>1.00897228717804</v>
+        <v>1.090351700782776</v>
       </c>
       <c r="D6" t="n">
-        <v>1.023198127746582</v>
+        <v>1.058972597122192</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45628</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.027346014976501</v>
+        <v>1.056811332702637</v>
       </c>
       <c r="C7" t="n">
-        <v>1.002842545509338</v>
+        <v>1.088043808937073</v>
       </c>
       <c r="D7" t="n">
-        <v>1.002473831176758</v>
+        <v>1.080322504043579</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45635</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.001655459403992</v>
+        <v>1.057246923446655</v>
       </c>
       <c r="C8" t="n">
-        <v>0.995857298374176</v>
+        <v>1.088192582130432</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9868268966674805</v>
+        <v>1.078206300735474</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45642</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>0.992656409740448</v>
+        <v>1.057081937789917</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9721570611000061</v>
+        <v>1.088192582130432</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9861927032470703</v>
+        <v>1.078128695487976</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45649</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.003284454345703</v>
+        <v>1.078462839126587</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9686437845230103</v>
+        <v>1.099180579185486</v>
       </c>
       <c r="D10" t="n">
-        <v>1.000754356384277</v>
+        <v>1.102331161499023</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45663</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.005599975585938</v>
+        <v>1.071750998497009</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9983696937561035</v>
+        <v>1.089475631713867</v>
       </c>
       <c r="D11" t="n">
-        <v>1.013811349868774</v>
+        <v>1.10532808303833</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45670</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9929331541061401</v>
+        <v>1.088335156440735</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9697510600090027</v>
+        <v>1.104419589042664</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9973499774932861</v>
+        <v>1.119654297828674</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45677</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9992318749427795</v>
+        <v>1.072906970977783</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9734795689582825</v>
+        <v>0.9655804038047791</v>
       </c>
       <c r="D13" t="n">
-        <v>1.008678078651428</v>
+        <v>1.020029544830322</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45684</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9971379637718201</v>
+        <v>1.065665125846863</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9731122851371765</v>
+        <v>0.9898895025253296</v>
       </c>
       <c r="D14" t="n">
-        <v>1.00661826133728</v>
+        <v>1.043127059936523</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.066240310668945</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.031519770622253</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.080968856811523</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.064970016479492</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.003322124481201</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.061107039451599</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.045021653175354</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9716472029685974</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9925899505615234</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.046072363853455</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.967860996723175</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.015818238258362</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.022125482559204</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9514846801757812</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.015938758850098</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.050165891647339</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9903031587600708</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.998473584651947</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.015131592750549</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9587145447731018</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9565636515617371</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.011415123939514</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9530778527259827</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9647040963172913</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.019907474517822</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.938534140586853</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9797453284263611</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9880090951919556</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9610475897789001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.979975163936615</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.987270176410675</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9795350432395935</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9829310774803162</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9838550090789795</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9936544895172119</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9802499413490295</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9847605228424072</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9880952835083008</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.98981112241745</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45691</v>
       </c>
-      <c r="B15" t="n">
-        <v>0.9972754716873169</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9634070992469788</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.9861847162246704</v>
+      <c r="B28" t="n">
+        <v>0.9915748238563538</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9839848875999451</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9805377125740051</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_115_150G_CAT_I_SACHET.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_115_150G_CAT_I_SACHET.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GOLDEN FRANCE 115/150G CAT.I SACHET_S+1</t>
+          <t>PRIX EXP POMME GOLDEN FRANCE 115/150G CAT.I SACHET_S+1_class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GOLDEN FRANCE 115/150G CAT.I SACHET_S+2</t>
+          <t>PRIX EXP POMME GOLDEN FRANCE 115/150G CAT.I SACHET_S+2_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GOLDEN FRANCE 115/150G CAT.I SACHET_S+3</t>
+          <t>PRIX EXP POMME GOLDEN FRANCE 115/150G CAT.I SACHET_S+3_class</t>
         </is>
       </c>
     </row>
@@ -473,13 +473,13 @@
         <v>0.9599999785423279</v>
       </c>
       <c r="C2" t="n">
-        <v>1.049999952316284</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.049999952316284</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.049999952316284</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -487,64 +487,104 @@
         <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>45551</v>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
       <c r="E9" t="n">
-        <v>1.100000023841858</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -552,12 +592,14 @@
         <v>45558</v>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
       <c r="D10" t="n">
-        <v>1.100000023841858</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>1.090000033378601</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -566,13 +608,13 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.100000023841858</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>1.090000033378601</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1.090000033378601</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -583,13 +625,13 @@
         <v>1.100000023841858</v>
       </c>
       <c r="C12" t="n">
-        <v>1.090000033378601</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>1.090000033378601</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1.059999942779541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -600,13 +642,13 @@
         <v>1.090000033378601</v>
       </c>
       <c r="C13" t="n">
-        <v>1.090000033378601</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>1.059999942779541</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1.049999952316284</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +659,13 @@
         <v>1.090000033378601</v>
       </c>
       <c r="C14" t="n">
-        <v>1.059999942779541</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1.049999952316284</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1.019999980926514</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -634,13 +676,13 @@
         <v>1.059999942779541</v>
       </c>
       <c r="C15" t="n">
-        <v>1.049999952316284</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1.019999980926514</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1.029999971389771</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -651,10 +693,10 @@
         <v>1.049999952316284</v>
       </c>
       <c r="C16" t="n">
-        <v>1.019999980926514</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1.029999971389771</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -668,13 +710,13 @@
         <v>1.019999980926514</v>
       </c>
       <c r="C17" t="n">
-        <v>1.029999971389771</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1.009999990463257</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -688,10 +730,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1.009999990463257</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9700000286102295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -702,13 +744,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1.009999990463257</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9700000286102295</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9800000190734863</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +761,13 @@
         <v>1.009999990463257</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9700000286102295</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9800000190734863</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9599999785423279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -736,13 +778,13 @@
         <v>0.9700000286102295</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9800000190734863</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9599999785423279</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9700000286102295</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -753,13 +795,13 @@
         <v>0.9800000190734863</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9599999785423279</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9700000286102295</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>0.949999988079071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -770,13 +812,13 @@
         <v>0.9599999785423279</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9700000286102295</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0.949999988079071</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9599999785423279</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -787,13 +829,13 @@
         <v>0.9700000286102295</v>
       </c>
       <c r="C24" t="n">
-        <v>0.949999988079071</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9599999785423279</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9300000071525574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -804,13 +846,13 @@
         <v>0.949999988079071</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9599999785423279</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9300000071525574</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9100000262260437</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -821,12 +863,14 @@
         <v>0.9599999785423279</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9300000071525574</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9100000262260437</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -836,10 +880,14 @@
         <v>0.9300000071525574</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9100000262260437</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -848,9 +896,15 @@
       <c r="B28" t="n">
         <v>0.9100000262260437</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -898,13 +952,13 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.012561678886414</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9402960538864136</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9866102337837219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -912,13 +966,13 @@
         <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.050508737564087</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.087898254394531</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.068228960037231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -926,13 +980,13 @@
         <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.053743362426758</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.088605880737305</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.055316567420959</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -940,13 +994,13 @@
         <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.053256034851074</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.088605880737305</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.051173686981201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -954,13 +1008,13 @@
         <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.054326057434082</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.090351700782776</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1.058972597122192</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -968,13 +1022,13 @@
         <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.056811332702637</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.088043808937073</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1.080322504043579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +1036,13 @@
         <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.057246923446655</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1.088192582130432</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1.078206300735474</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9">
@@ -996,13 +1050,13 @@
         <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.057081937789917</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.088192582130432</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.078128695487976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1010,13 +1064,13 @@
         <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.078462839126587</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>1.099180579185486</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1.102331161499023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1024,13 +1078,13 @@
         <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.071750998497009</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1.089475631713867</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.10532808303833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1038,13 +1092,13 @@
         <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.088335156440735</v>
+        <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>1.104419589042664</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.119654297828674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1052,13 +1106,13 @@
         <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.072906970977783</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9655804038047791</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.020029544830322</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14">
@@ -1066,13 +1120,13 @@
         <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.065665125846863</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9898895025253296</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.043127059936523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1080,13 +1134,13 @@
         <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.066240310668945</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.031519770622253</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.080968856811523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1094,13 +1148,13 @@
         <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.064970016479492</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.003322124481201</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.061107039451599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1108,13 +1162,13 @@
         <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.045021653175354</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9716472029685974</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9925899505615234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1122,13 +1176,13 @@
         <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.046072363853455</v>
+        <v>-2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.967860996723175</v>
+        <v>-2</v>
       </c>
       <c r="D18" t="n">
-        <v>1.015818238258362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1136,13 +1190,13 @@
         <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.022125482559204</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9514846801757812</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.015938758850098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1150,13 +1204,13 @@
         <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.050165891647339</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9903031587600708</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.998473584651947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1164,13 +1218,13 @@
         <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.015131592750549</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9587145447731018</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9565636515617371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1178,13 +1232,13 @@
         <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.011415123939514</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9530778527259827</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9647040963172913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1192,13 +1246,13 @@
         <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.019907474517822</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.938534140586853</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9797453284263611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1206,13 +1260,13 @@
         <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9880090951919556</v>
+        <v>-2</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9610475897789001</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.979975163936615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1220,13 +1274,13 @@
         <v>45670</v>
       </c>
       <c r="B25" t="n">
-        <v>0.987270176410675</v>
+        <v>-2</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9795350432395935</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9829310774803162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1234,13 +1288,13 @@
         <v>45677</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9838550090789795</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9936544895172119</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9802499413490295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1248,13 +1302,13 @@
         <v>45684</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9847605228424072</v>
+        <v>-1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9880952835083008</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.98981112241745</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="28">
@@ -1262,13 +1316,13 @@
         <v>45691</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9915748238563538</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9839848875999451</v>
+        <v>-2</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9805377125740051</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
